--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,25 +43,34 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shame</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>emergency</t>
@@ -70,15 +79,9 @@
     <t>low</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
@@ -94,12 +97,12 @@
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
@@ -112,76 +115,82 @@
     <t>special</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>credit</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>energy</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>please</t>
@@ -190,52 +199,31 @@
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>online</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>supermarket</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
   <si>
     <t>co</t>
@@ -599,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,7 +595,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
         <v>34</v>
@@ -668,13 +656,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9117647058823529</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -686,19 +674,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -710,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -718,13 +706,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7307692307692307</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -736,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -760,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -768,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7241379310344828</v>
+        <v>0.7465753424657534</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>218</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>218</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -786,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -810,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -818,13 +806,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7222222222222222</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -836,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -860,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -868,13 +856,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.702054794520548</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C7">
-        <v>205</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>205</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -886,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K7">
         <v>0.8571428571428571</v>
@@ -918,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6052631578947368</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -936,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>0.8414634146341463</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -960,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -968,13 +956,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5897435897435898</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -986,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9">
         <v>0.8333333333333334</v>
@@ -1018,13 +1006,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5128205128205128</v>
+        <v>0.5</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1039,16 +1027,16 @@
         <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.828125</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L10">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M10">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1060,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1068,13 +1056,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4266666666666667</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1086,19 +1074,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.8148148148148148</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1110,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1118,13 +1106,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3825503355704698</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="C12">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1136,19 +1124,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.8103448275862069</v>
+        <v>0.7890625</v>
       </c>
       <c r="L12">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="M12">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1160,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1168,13 +1156,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3662790697674418</v>
+        <v>0.3837209302325582</v>
       </c>
       <c r="C13">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="D13">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1186,19 +1174,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="M13">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1210,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1218,13 +1206,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3333333333333333</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C14">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1236,19 +1224,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.7887323943661971</v>
+        <v>0.775</v>
       </c>
       <c r="L14">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="M14">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1260,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1268,13 +1256,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3116883116883117</v>
+        <v>0.348993288590604</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1286,19 +1274,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.7872340425531915</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1310,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1318,13 +1306,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1336,19 +1324,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>0.7857142857142857</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L16">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="M16">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1360,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1368,13 +1356,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2103174603174603</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C17">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1386,19 +1374,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>199</v>
+        <v>65</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1410,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1418,13 +1406,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1233243967828418</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="C18">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D18">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1436,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>327</v>
+        <v>200</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>0.7358490566037735</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L18">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M18">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1460,21 +1448,45 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.1179624664879357</v>
+      </c>
+      <c r="C19">
+        <v>44</v>
+      </c>
+      <c r="D19">
+        <v>44</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>329</v>
+      </c>
       <c r="J19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K19">
-        <v>0.7254901960784313</v>
+        <v>0.69375</v>
       </c>
       <c r="L19">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="M19">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1486,21 +1498,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>0.7142857142857143</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1512,21 +1524,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>0.69375</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L21">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1538,21 +1550,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>0.6702127659574468</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L22">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1564,21 +1576,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>0.6666666666666666</v>
+        <v>0.6161879895561357</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>236</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>236</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1590,21 +1602,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>0.6470588235294118</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L24">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1616,21 +1628,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>0.6222222222222222</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L25">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1642,21 +1654,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>0.6135770234986945</v>
+        <v>0.6</v>
       </c>
       <c r="L26">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1668,21 +1680,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>148</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>0.611764705882353</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L27">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1694,21 +1706,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>132</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28">
-        <v>0.575</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="L28">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="M28">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1720,21 +1732,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K29">
-        <v>0.5617977528089888</v>
+        <v>0.5676470588235294</v>
       </c>
       <c r="L29">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="M29">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1746,21 +1758,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>39</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K30">
-        <v>0.5322033898305085</v>
+        <v>0.5627118644067797</v>
       </c>
       <c r="L30">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="M30">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1772,21 +1784,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K31">
-        <v>0.5</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1798,21 +1810,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K32">
-        <v>0.4923076923076923</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1824,47 +1836,47 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K33">
-        <v>0.4883720930232558</v>
+        <v>0.475</v>
       </c>
       <c r="L33">
+        <v>19</v>
+      </c>
+      <c r="M33">
+        <v>19</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>21</v>
-      </c>
-      <c r="M33">
-        <v>21</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>22</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K34">
-        <v>0.4435146443514644</v>
+        <v>0.46875</v>
       </c>
       <c r="L34">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="M34">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1876,15 +1888,15 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>133</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K35">
-        <v>0.4358974358974359</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L35">
         <v>34</v>
@@ -1902,21 +1914,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K36">
-        <v>0.410958904109589</v>
+        <v>0.4560669456066946</v>
       </c>
       <c r="L36">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="M36">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1928,21 +1940,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>43</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K37">
-        <v>0.390625</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L37">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M37">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1954,12 +1966,12 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K38">
         <v>0.3285714285714286</v>
@@ -1985,16 +1997,16 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K39">
-        <v>0.2</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="L39">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="M39">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2006,21 +2018,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>76</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K40">
-        <v>0.1162790697674419</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L40">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="M40">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2032,21 +2044,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>190</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K41">
-        <v>0.1153846153846154</v>
+        <v>0.0894854586129754</v>
       </c>
       <c r="L41">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="M41">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2058,21 +2070,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>368</v>
+        <v>814</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K42">
-        <v>0.1124401913875598</v>
+        <v>0.06659267480577137</v>
       </c>
       <c r="L42">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="M42">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2084,47 +2096,47 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>371</v>
+        <v>841</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K43">
-        <v>0.09742441209406495</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="L43">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="M43">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="N43">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O43">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>806</v>
+        <v>616</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K44">
-        <v>0.08837209302325581</v>
+        <v>0.0411522633744856</v>
       </c>
       <c r="L44">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M44">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2136,241 +2148,111 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>196</v>
+        <v>466</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K45">
-        <v>0.06222222222222222</v>
+        <v>0.03743565746373421</v>
       </c>
       <c r="L45">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="M45">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="N45">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="O45">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>844</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K46">
-        <v>0.0581039755351682</v>
+        <v>0.03233256351039261</v>
       </c>
       <c r="L46">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M46">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>308</v>
+        <v>838</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K47">
-        <v>0.05384615384615385</v>
+        <v>0.01804705124073477</v>
       </c>
       <c r="L47">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="M47">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>615</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K48">
-        <v>0.04036908881199539</v>
+        <v>0.007523510971786834</v>
       </c>
       <c r="L48">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M48">
         <v>35</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="49" spans="10:17">
-      <c r="J49" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K49">
-        <v>0.03909465020576132</v>
-      </c>
-      <c r="L49">
-        <v>19</v>
-      </c>
-      <c r="M49">
-        <v>19</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="50" spans="10:17">
-      <c r="J50" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K50">
-        <v>0.03366058906030855</v>
-      </c>
-      <c r="L50">
-        <v>72</v>
-      </c>
-      <c r="M50">
-        <v>76</v>
-      </c>
-      <c r="N50">
-        <v>0.95</v>
-      </c>
-      <c r="O50">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P50" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q50">
-        <v>2067</v>
-      </c>
-    </row>
-    <row r="51" spans="10:17">
-      <c r="J51" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K51">
-        <v>0.02072538860103627</v>
-      </c>
-      <c r="L51">
-        <v>20</v>
-      </c>
-      <c r="M51">
-        <v>23</v>
-      </c>
-      <c r="N51">
-        <v>0.87</v>
-      </c>
-      <c r="O51">
-        <v>0.13</v>
-      </c>
-      <c r="P51" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q51">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="52" spans="10:17">
-      <c r="J52" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K52">
-        <v>0.01903839948370442</v>
-      </c>
-      <c r="L52">
-        <v>59</v>
-      </c>
-      <c r="M52">
-        <v>67</v>
-      </c>
-      <c r="N52">
-        <v>0.88</v>
-      </c>
-      <c r="O52">
-        <v>0.12</v>
-      </c>
-      <c r="P52" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q52">
-        <v>3040</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
-      <c r="J53" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K53">
-        <v>0.008153026026967701</v>
-      </c>
-      <c r="L53">
-        <v>26</v>
-      </c>
-      <c r="M53">
-        <v>38</v>
-      </c>
-      <c r="N53">
-        <v>0.68</v>
-      </c>
-      <c r="O53">
-        <v>0.32</v>
-      </c>
-      <c r="P53" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q53">
-        <v>3163</v>
+        <v>3166</v>
       </c>
     </row>
   </sheetData>
